--- a/final_data_pipeline/output/325110longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325110longform_elec_options_nowhp.xlsx
@@ -648,7 +648,7 @@
         <v>62</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -663,10 +663,10 @@
         <v>169.4098799338086</v>
       </c>
       <c r="N2">
-        <v>1.025288461538461</v>
+        <v>1.03592820319873</v>
       </c>
       <c r="O2">
-        <v>1.0563</v>
+        <v>1.067704754529766</v>
       </c>
       <c r="P2">
         <v>0.02117623499172607</v>
@@ -701,7 +701,7 @@
         <v>63</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -748,7 +748,7 @@
         <v>63</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -795,7 +795,7 @@
         <v>62</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -810,10 +810,10 @@
         <v>32995.30490400347</v>
       </c>
       <c r="N5">
-        <v>1.025288461538461</v>
+        <v>0.9939102066179896</v>
       </c>
       <c r="O5">
-        <v>1.0563</v>
+        <v>1.022720671292561</v>
       </c>
       <c r="P5">
         <v>4.124413113000434</v>
@@ -848,7 +848,7 @@
         <v>63</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -2118,7 +2118,7 @@
         <v>63</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2165,7 +2165,7 @@
         <v>62</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2180,10 +2180,10 @@
         <v>651265.6796054139</v>
       </c>
       <c r="N33">
-        <v>1.025288461538461</v>
+        <v>1.064821081830791</v>
       </c>
       <c r="O33">
-        <v>1.0563</v>
+        <v>1.098722912453048</v>
       </c>
       <c r="P33">
         <v>81.40820995067673</v>
@@ -2218,7 +2218,7 @@
         <v>63</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2265,7 +2265,7 @@
         <v>62</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2280,10 +2280,10 @@
         <v>77758.08985627412</v>
       </c>
       <c r="N35">
-        <v>1.025288461538461</v>
+        <v>1.069250338898071</v>
       </c>
       <c r="O35">
-        <v>1.0563</v>
+        <v>1.103484165522044</v>
       </c>
       <c r="P35">
         <v>9.719761232034266</v>
@@ -2318,7 +2318,7 @@
         <v>63</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2947,7 +2947,7 @@
         <v>63</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J49">
         <v>8000</v>
@@ -3041,7 +3041,7 @@
         <v>63</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="J51">
         <v>8000</v>
